--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
+    <t>Ckap4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
-    <t>Ckap4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.776364333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="H2">
-        <v>8.329093</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="I2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="J2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.934698</v>
+        <v>12.92747733333333</v>
       </c>
       <c r="N2">
-        <v>50.80409399999999</v>
+        <v>38.782432</v>
       </c>
       <c r="O2">
-        <v>0.1082355330287082</v>
+        <v>0.1005080248020524</v>
       </c>
       <c r="P2">
-        <v>0.1082355330287082</v>
+        <v>0.1005080248020523</v>
       </c>
       <c r="Q2">
-        <v>47.01689152297133</v>
+        <v>32.89317318939023</v>
       </c>
       <c r="R2">
-        <v>423.1520237067419</v>
+        <v>296.038558704512</v>
       </c>
       <c r="S2">
-        <v>0.02388026584783836</v>
+        <v>0.02023480826648931</v>
       </c>
       <c r="T2">
-        <v>0.02388026584783836</v>
+        <v>0.02023480826648931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.776364333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="H3">
-        <v>8.329093</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="I3">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="J3">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>268.336295</v>
       </c>
       <c r="O3">
-        <v>0.5716768006978669</v>
+        <v>0.6954167029326792</v>
       </c>
       <c r="P3">
-        <v>0.571676800697867</v>
+        <v>0.6954167029326793</v>
       </c>
       <c r="Q3">
-        <v>248.3331062589372</v>
+        <v>227.5884148893578</v>
       </c>
       <c r="R3">
-        <v>2234.997956330435</v>
+        <v>2048.29573400422</v>
       </c>
       <c r="S3">
-        <v>0.1261304268357581</v>
+        <v>0.1400049764869081</v>
       </c>
       <c r="T3">
-        <v>0.1261304268357581</v>
+        <v>0.1400049764869082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.776364333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="H4">
-        <v>8.329093</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="I4">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="J4">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.7309</v>
+        <v>8.460789</v>
       </c>
       <c r="N4">
-        <v>71.1927</v>
+        <v>25.382367</v>
       </c>
       <c r="O4">
-        <v>0.1516724190033369</v>
+        <v>0.06578059808035749</v>
       </c>
       <c r="P4">
-        <v>0.151672419003337</v>
+        <v>0.06578059808035749</v>
       </c>
       <c r="Q4">
-        <v>65.88562435790001</v>
+        <v>21.527958682108</v>
       </c>
       <c r="R4">
-        <v>592.9706192211</v>
+        <v>193.751628138972</v>
       </c>
       <c r="S4">
-        <v>0.0334638504216885</v>
+        <v>0.01324329865632628</v>
       </c>
       <c r="T4">
-        <v>0.0334638504216885</v>
+        <v>0.01324329865632628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.776364333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="H5">
-        <v>8.329093</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="I5">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="J5">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.519560333333333</v>
+        <v>8.794013</v>
       </c>
       <c r="N5">
-        <v>25.558681</v>
+        <v>26.382039</v>
       </c>
       <c r="O5">
-        <v>0.05445146726847874</v>
+        <v>0.0683713344779593</v>
       </c>
       <c r="P5">
-        <v>0.05445146726847875</v>
+        <v>0.0683713344779593</v>
       </c>
       <c r="Q5">
-        <v>23.65340344514811</v>
+        <v>22.37582671236933</v>
       </c>
       <c r="R5">
-        <v>212.880631006333</v>
+        <v>201.382440411324</v>
       </c>
       <c r="S5">
-        <v>0.01201375812351058</v>
+        <v>0.01376487943933076</v>
       </c>
       <c r="T5">
-        <v>0.01201375812351058</v>
+        <v>0.01376487943933076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.776364333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="H6">
-        <v>8.329093</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="I6">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="J6">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.83094833333334</v>
+        <v>8.993634</v>
       </c>
       <c r="N6">
-        <v>53.492845</v>
+        <v>26.980902</v>
       </c>
       <c r="O6">
-        <v>0.1139637800016091</v>
+        <v>0.06992333970695143</v>
       </c>
       <c r="P6">
-        <v>0.1139637800016091</v>
+        <v>0.06992333970695143</v>
       </c>
       <c r="Q6">
-        <v>49.50520898217612</v>
+        <v>22.883750103448</v>
       </c>
       <c r="R6">
-        <v>445.546880839585</v>
+        <v>205.953750931032</v>
       </c>
       <c r="S6">
-        <v>0.02514410274804253</v>
+        <v>0.01407733735798049</v>
       </c>
       <c r="T6">
-        <v>0.02514410274804253</v>
+        <v>0.01407733735798049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>26.424676</v>
       </c>
       <c r="I7">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="J7">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.934698</v>
+        <v>12.92747733333333</v>
       </c>
       <c r="N7">
-        <v>50.80409399999999</v>
+        <v>38.782432</v>
       </c>
       <c r="O7">
-        <v>0.1082355330287082</v>
+        <v>0.1005080248020524</v>
       </c>
       <c r="P7">
-        <v>0.1082355330287082</v>
+        <v>0.1005080248020523</v>
       </c>
       <c r="Q7">
-        <v>149.1646359359493</v>
+        <v>113.8681333435591</v>
       </c>
       <c r="R7">
-        <v>1342.481723423544</v>
+        <v>1024.813200092032</v>
       </c>
       <c r="S7">
-        <v>0.07576194524697874</v>
+        <v>0.07004796504744486</v>
       </c>
       <c r="T7">
-        <v>0.07576194524697874</v>
+        <v>0.07004796504744486</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>26.424676</v>
       </c>
       <c r="I8">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="J8">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>268.336295</v>
       </c>
       <c r="O8">
-        <v>0.5716768006978669</v>
+        <v>0.6954167029326792</v>
       </c>
       <c r="P8">
-        <v>0.571676800697867</v>
+        <v>0.6954167029326793</v>
       </c>
       <c r="Q8">
         <v>787.8555171572688</v>
@@ -948,10 +948,10 @@
         <v>7090.69965441542</v>
       </c>
       <c r="S8">
-        <v>0.4001582960925775</v>
+        <v>0.4846630405519914</v>
       </c>
       <c r="T8">
-        <v>0.4001582960925775</v>
+        <v>0.4846630405519916</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>26.424676</v>
       </c>
       <c r="I9">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="J9">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.7309</v>
+        <v>8.460789</v>
       </c>
       <c r="N9">
-        <v>71.1927</v>
+        <v>25.382367</v>
       </c>
       <c r="O9">
-        <v>0.1516724190033369</v>
+        <v>0.06578059808035749</v>
       </c>
       <c r="P9">
-        <v>0.151672419003337</v>
+        <v>0.06578059808035749</v>
       </c>
       <c r="Q9">
-        <v>209.0271145628</v>
+        <v>74.52453600978799</v>
       </c>
       <c r="R9">
-        <v>1881.2440310652</v>
+        <v>670.7208240880919</v>
       </c>
       <c r="S9">
-        <v>0.1061665904205394</v>
+        <v>0.04584506604530159</v>
       </c>
       <c r="T9">
-        <v>0.1061665904205394</v>
+        <v>0.04584506604530159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>26.424676</v>
       </c>
       <c r="I10">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="J10">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.519560333333333</v>
+        <v>8.794013</v>
       </c>
       <c r="N10">
-        <v>25.558681</v>
+        <v>26.382039</v>
       </c>
       <c r="O10">
-        <v>0.05445146726847874</v>
+        <v>0.0683713344779593</v>
       </c>
       <c r="P10">
-        <v>0.05445146726847875</v>
+        <v>0.0683713344779593</v>
       </c>
       <c r="Q10">
-        <v>75.04220715692843</v>
+        <v>77.45964808826265</v>
       </c>
       <c r="R10">
-        <v>675.3798644123559</v>
+        <v>697.136832794364</v>
       </c>
       <c r="S10">
-        <v>0.0381145541244569</v>
+        <v>0.04765065135039306</v>
       </c>
       <c r="T10">
-        <v>0.0381145541244569</v>
+        <v>0.04765065135039306</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>26.424676</v>
       </c>
       <c r="I11">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="J11">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.83094833333334</v>
+        <v>8.993634</v>
       </c>
       <c r="N11">
-        <v>53.492845</v>
+        <v>26.980902</v>
       </c>
       <c r="O11">
-        <v>0.1139637800016091</v>
+        <v>0.06992333970695143</v>
       </c>
       <c r="P11">
-        <v>0.1139637800016091</v>
+        <v>0.06992333970695143</v>
       </c>
       <c r="Q11">
-        <v>157.0590108270245</v>
+        <v>79.217954837528</v>
       </c>
       <c r="R11">
-        <v>1413.53109744322</v>
+        <v>712.9615935377519</v>
       </c>
       <c r="S11">
-        <v>0.07977156317353325</v>
+        <v>0.04873230436514489</v>
       </c>
       <c r="T11">
-        <v>0.07977156317353323</v>
+        <v>0.0487323043651449</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.003041</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="H12">
-        <v>0.009123000000000001</v>
+        <v>3.821749</v>
       </c>
       <c r="I12">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="J12">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.934698</v>
+        <v>12.92747733333333</v>
       </c>
       <c r="N12">
-        <v>50.80409399999999</v>
+        <v>38.782432</v>
       </c>
       <c r="O12">
-        <v>0.1082355330287082</v>
+        <v>0.1005080248020524</v>
       </c>
       <c r="P12">
-        <v>0.1082355330287082</v>
+        <v>0.1005080248020523</v>
       </c>
       <c r="Q12">
-        <v>0.051498416618</v>
+        <v>16.46852452372978</v>
       </c>
       <c r="R12">
-        <v>0.4634857495619999</v>
+        <v>148.216720713568</v>
       </c>
       <c r="S12">
-        <v>2.615646929741682E-05</v>
+        <v>0.0101308996323023</v>
       </c>
       <c r="T12">
-        <v>2.615646929741682E-05</v>
+        <v>0.0101308996323023</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.003041</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="H13">
-        <v>0.009123000000000001</v>
+        <v>3.821749</v>
       </c>
       <c r="I13">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="J13">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>268.336295</v>
       </c>
       <c r="O13">
-        <v>0.5716768006978669</v>
+        <v>0.6954167029326792</v>
       </c>
       <c r="P13">
-        <v>0.571676800697867</v>
+        <v>0.6954167029326793</v>
       </c>
       <c r="Q13">
-        <v>0.2720035576983333</v>
+        <v>113.9459963422172</v>
       </c>
       <c r="R13">
-        <v>2.448032019285</v>
+        <v>1025.513967079955</v>
       </c>
       <c r="S13">
-        <v>0.0001381528437757414</v>
+        <v>0.07009586382692196</v>
       </c>
       <c r="T13">
-        <v>0.0001381528437757415</v>
+        <v>0.07009586382692197</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.003041</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="H14">
-        <v>0.009123000000000001</v>
+        <v>3.821749</v>
       </c>
       <c r="I14">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="J14">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.7309</v>
+        <v>8.460789</v>
       </c>
       <c r="N14">
-        <v>71.1927</v>
+        <v>25.382367</v>
       </c>
       <c r="O14">
-        <v>0.1516724190033369</v>
+        <v>0.06578059808035749</v>
       </c>
       <c r="P14">
-        <v>0.151672419003337</v>
+        <v>0.06578059808035749</v>
       </c>
       <c r="Q14">
-        <v>0.07216566690000001</v>
+        <v>10.778337299987</v>
       </c>
       <c r="R14">
-        <v>0.6494910021000001</v>
+        <v>97.005035699883</v>
       </c>
       <c r="S14">
-        <v>3.665353567273942E-05</v>
+        <v>0.006630481876620372</v>
       </c>
       <c r="T14">
-        <v>3.665353567273942E-05</v>
+        <v>0.006630481876620373</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.003041</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="H15">
-        <v>0.009123000000000001</v>
+        <v>3.821749</v>
       </c>
       <c r="I15">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="J15">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.519560333333333</v>
+        <v>8.794013</v>
       </c>
       <c r="N15">
-        <v>25.558681</v>
+        <v>26.382039</v>
       </c>
       <c r="O15">
-        <v>0.05445146726847874</v>
+        <v>0.0683713344779593</v>
       </c>
       <c r="P15">
-        <v>0.05445146726847875</v>
+        <v>0.0683713344779593</v>
       </c>
       <c r="Q15">
-        <v>0.02590798297366667</v>
+        <v>11.20283679624567</v>
       </c>
       <c r="R15">
-        <v>0.233171846763</v>
+        <v>100.825531166211</v>
       </c>
       <c r="S15">
-        <v>1.315887760657577E-05</v>
+        <v>0.006891620133685398</v>
       </c>
       <c r="T15">
-        <v>1.315887760657577E-05</v>
+        <v>0.006891620133685399</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.003041</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="H16">
-        <v>0.009123000000000001</v>
+        <v>3.821749</v>
       </c>
       <c r="I16">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="J16">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.83094833333334</v>
+        <v>8.993634</v>
       </c>
       <c r="N16">
-        <v>53.492845</v>
+        <v>26.980902</v>
       </c>
       <c r="O16">
-        <v>0.1139637800016091</v>
+        <v>0.06992333970695143</v>
       </c>
       <c r="P16">
-        <v>0.1139637800016091</v>
+        <v>0.06992333970695143</v>
       </c>
       <c r="Q16">
-        <v>0.05422391388166668</v>
+        <v>11.457137248622</v>
       </c>
       <c r="R16">
-        <v>0.488015224935</v>
+        <v>103.114235237598</v>
       </c>
       <c r="S16">
-        <v>2.754077177075488E-05</v>
+        <v>0.00704805748517742</v>
       </c>
       <c r="T16">
-        <v>2.754077177075487E-05</v>
+        <v>0.007048057485177422</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.9921066666666668</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="H17">
-        <v>2.97632</v>
+        <v>0.035593</v>
       </c>
       <c r="I17">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="J17">
-        <v>0.07884083376237279</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.934698</v>
+        <v>12.92747733333333</v>
       </c>
       <c r="N17">
-        <v>50.80409399999999</v>
+        <v>38.782432</v>
       </c>
       <c r="O17">
-        <v>0.1082355330287082</v>
+        <v>0.1005080248020524</v>
       </c>
       <c r="P17">
-        <v>0.1082355330287082</v>
+        <v>0.1005080248020523</v>
       </c>
       <c r="Q17">
-        <v>16.80102678378667</v>
+        <v>0.1533759002417778</v>
       </c>
       <c r="R17">
-        <v>151.20924105408</v>
+        <v>1.380383102176</v>
       </c>
       <c r="S17">
-        <v>0.008533379666698196</v>
+        <v>9.435185581589362E-05</v>
       </c>
       <c r="T17">
-        <v>0.008533379666698194</v>
+        <v>9.435185581589363E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.9921066666666668</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="H18">
-        <v>2.97632</v>
+        <v>0.035593</v>
       </c>
       <c r="I18">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="J18">
-        <v>0.07884083376237279</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>268.336295</v>
       </c>
       <c r="O18">
-        <v>0.5716768006978669</v>
+        <v>0.6954167029326792</v>
       </c>
       <c r="P18">
-        <v>0.571676800697867</v>
+        <v>0.6954167029326793</v>
       </c>
       <c r="Q18">
-        <v>88.73940905937779</v>
+        <v>1.061210416437222</v>
       </c>
       <c r="R18">
-        <v>798.6546815344001</v>
+        <v>9.550893747935</v>
       </c>
       <c r="S18">
-        <v>0.04507147560962565</v>
+        <v>0.0006528220668577745</v>
       </c>
       <c r="T18">
-        <v>0.04507147560962565</v>
+        <v>0.0006528220668577747</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.9921066666666668</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="H19">
-        <v>2.97632</v>
+        <v>0.035593</v>
       </c>
       <c r="I19">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="J19">
-        <v>0.07884083376237279</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.7309</v>
+        <v>8.460789</v>
       </c>
       <c r="N19">
-        <v>71.1927</v>
+        <v>25.382367</v>
       </c>
       <c r="O19">
-        <v>0.1516724190033369</v>
+        <v>0.06578059808035749</v>
       </c>
       <c r="P19">
-        <v>0.151672419003337</v>
+        <v>0.06578059808035749</v>
       </c>
       <c r="Q19">
-        <v>23.543584096</v>
+        <v>0.100381620959</v>
       </c>
       <c r="R19">
-        <v>211.892256864</v>
+        <v>0.9034345886309999</v>
       </c>
       <c r="S19">
-        <v>0.01195797997297904</v>
+        <v>6.175150210925649E-05</v>
       </c>
       <c r="T19">
-        <v>0.01195797997297904</v>
+        <v>6.17515021092565E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.9921066666666668</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="H20">
-        <v>2.97632</v>
+        <v>0.035593</v>
       </c>
       <c r="I20">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="J20">
-        <v>0.07884083376237279</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.519560333333333</v>
+        <v>8.794013</v>
       </c>
       <c r="N20">
-        <v>25.558681</v>
+        <v>26.382039</v>
       </c>
       <c r="O20">
-        <v>0.05445146726847874</v>
+        <v>0.0683713344779593</v>
       </c>
       <c r="P20">
-        <v>0.05445146726847875</v>
+        <v>0.0683713344779593</v>
       </c>
       <c r="Q20">
-        <v>8.45231260376889</v>
+        <v>0.1043351015696667</v>
       </c>
       <c r="R20">
-        <v>76.07081343392001</v>
+        <v>0.9390159141269999</v>
       </c>
       <c r="S20">
-        <v>0.004292999079031416</v>
+        <v>6.418355455009326E-05</v>
       </c>
       <c r="T20">
-        <v>0.004292999079031416</v>
+        <v>6.418355455009327E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.9921066666666668</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="H21">
-        <v>2.97632</v>
+        <v>0.035593</v>
       </c>
       <c r="I21">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="J21">
-        <v>0.07884083376237279</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.83094833333334</v>
+        <v>8.993634</v>
       </c>
       <c r="N21">
-        <v>53.492845</v>
+        <v>26.980902</v>
       </c>
       <c r="O21">
-        <v>0.1139637800016091</v>
+        <v>0.06992333970695143</v>
       </c>
       <c r="P21">
-        <v>0.1139637800016091</v>
+        <v>0.06992333970695143</v>
       </c>
       <c r="Q21">
-        <v>17.69020271448889</v>
+        <v>0.106703471654</v>
       </c>
       <c r="R21">
-        <v>159.2118244304</v>
+        <v>0.960331244886</v>
       </c>
       <c r="S21">
-        <v>0.008984999434038491</v>
+        <v>6.56404986486344E-05</v>
       </c>
       <c r="T21">
-        <v>0.00898499943403849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.003928</v>
-      </c>
-      <c r="H22">
-        <v>0.011784</v>
-      </c>
-      <c r="I22">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="J22">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>16.934698</v>
-      </c>
-      <c r="N22">
-        <v>50.80409399999999</v>
-      </c>
-      <c r="O22">
-        <v>0.1082355330287082</v>
-      </c>
-      <c r="P22">
-        <v>0.1082355330287082</v>
-      </c>
-      <c r="Q22">
-        <v>0.06651949374399999</v>
-      </c>
-      <c r="R22">
-        <v>0.598675443696</v>
-      </c>
-      <c r="S22">
-        <v>3.378579789551242E-05</v>
-      </c>
-      <c r="T22">
-        <v>3.378579789551242E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.003928</v>
-      </c>
-      <c r="H23">
-        <v>0.011784</v>
-      </c>
-      <c r="I23">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="J23">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>89.44543166666666</v>
-      </c>
-      <c r="N23">
-        <v>268.336295</v>
-      </c>
-      <c r="O23">
-        <v>0.5716768006978669</v>
-      </c>
-      <c r="P23">
-        <v>0.571676800697867</v>
-      </c>
-      <c r="Q23">
-        <v>0.3513416555866667</v>
-      </c>
-      <c r="R23">
-        <v>3.16207490028</v>
-      </c>
-      <c r="S23">
-        <v>0.0001784493161299284</v>
-      </c>
-      <c r="T23">
-        <v>0.0001784493161299285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.003928</v>
-      </c>
-      <c r="H24">
-        <v>0.011784</v>
-      </c>
-      <c r="I24">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="J24">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>23.7309</v>
-      </c>
-      <c r="N24">
-        <v>71.1927</v>
-      </c>
-      <c r="O24">
-        <v>0.1516724190033369</v>
-      </c>
-      <c r="P24">
-        <v>0.151672419003337</v>
-      </c>
-      <c r="Q24">
-        <v>0.09321497520000001</v>
-      </c>
-      <c r="R24">
-        <v>0.8389347768000001</v>
-      </c>
-      <c r="S24">
-        <v>4.734465245725763E-05</v>
-      </c>
-      <c r="T24">
-        <v>4.734465245725763E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.003928</v>
-      </c>
-      <c r="H25">
-        <v>0.011784</v>
-      </c>
-      <c r="I25">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="J25">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>8.519560333333333</v>
-      </c>
-      <c r="N25">
-        <v>25.558681</v>
-      </c>
-      <c r="O25">
-        <v>0.05445146726847874</v>
-      </c>
-      <c r="P25">
-        <v>0.05445146726847875</v>
-      </c>
-      <c r="Q25">
-        <v>0.03346483298933333</v>
-      </c>
-      <c r="R25">
-        <v>0.301183496904</v>
-      </c>
-      <c r="S25">
-        <v>1.699706387327512E-05</v>
-      </c>
-      <c r="T25">
-        <v>1.699706387327512E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.003928</v>
-      </c>
-      <c r="H26">
-        <v>0.011784</v>
-      </c>
-      <c r="I26">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="J26">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>17.83094833333334</v>
-      </c>
-      <c r="N26">
-        <v>53.492845</v>
-      </c>
-      <c r="O26">
-        <v>0.1139637800016091</v>
-      </c>
-      <c r="P26">
-        <v>0.1139637800016091</v>
-      </c>
-      <c r="Q26">
-        <v>0.07003996505333335</v>
-      </c>
-      <c r="R26">
-        <v>0.6303596854800001</v>
-      </c>
-      <c r="S26">
-        <v>3.557387422411218E-05</v>
-      </c>
-      <c r="T26">
-        <v>3.557387422411218E-05</v>
+        <v>6.564049864863442E-05</v>
       </c>
     </row>
   </sheetData>
